--- a/medicine/Mort/Sarah_Tarlow/Sarah_Tarlow.xlsx
+++ b/medicine/Mort/Sarah_Tarlow/Sarah_Tarlow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarah Tarlow (née en 1967) est une archéologue et une universitaire britannique, surtout connue pour ses travaux portant sur l'archéologie funéraire. Elle enseigne l'archéologie à l'université de Leicester depuis 2000 et y est titulaire d'une chaire d'archéologie depuis 2012.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarah Tarlow, née en 1967[1], a commencé ses études supérieures à l'université de Sheffield, où elle a obtenu un baccalauréat en littérature anglaise en 1989. Elle poursuit ensuite ses études en archéologie à l'université de Cambridge, où elle a complété sa maîtrise (MPhil, 1990) et son doctorat (PhD, 1995)[2].
-Tarlow a commencé sa carrière dans l'enseignement universitaire à la university of Wales, Lampeter, où elle a occupé, de 1995 à 2000, les fonctions de lecturer en archéologie[2]. En 2000, elle devient lecturer en archéologie historique (en) à l'Université de Leicester, avant d'être promue senior lecturer en 2006, puis de devenir titulaire d'une chaire en archéologie en 2012[2],[3].
-Les recherches de Tarlow concernent l'archéologie historique de la Grande-Bretagne et de l'Europe du Nord. Elle a publié de nombreux ouvrages et a contribué à plusieurs revues et ouvrages collectifs portant sur l'archéologie funéraire, y compris l'ouvrage de référence Handbook of the Archaeology of Death and Burial. Elle s'intéresse également à l'archéologie des émotions et les questions d'éthique archéologique[3].
-De 2011 à 2016, Sarah Tarlow a dirigé un projet de recherche multidisciplinaire de grande envergure, Harnessing the Power of the Criminal Corpse, financé par le Wellcome Trust. Le projet s'intéressait au devenir, à la perception et aux usages du corps du condamné à mort en Grande-Bretagne (XVIe siècle-XXe siècle), une question qui a été étudiée à travers les perspectives de l'archéologie, de l'histoire médicale et criminelle, du folklore, de la littérature et de la philosophie [3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarah Tarlow, née en 1967, a commencé ses études supérieures à l'université de Sheffield, où elle a obtenu un baccalauréat en littérature anglaise en 1989. Elle poursuit ensuite ses études en archéologie à l'université de Cambridge, où elle a complété sa maîtrise (MPhil, 1990) et son doctorat (PhD, 1995).
+Tarlow a commencé sa carrière dans l'enseignement universitaire à la university of Wales, Lampeter, où elle a occupé, de 1995 à 2000, les fonctions de lecturer en archéologie. En 2000, elle devient lecturer en archéologie historique (en) à l'Université de Leicester, avant d'être promue senior lecturer en 2006, puis de devenir titulaire d'une chaire en archéologie en 2012,.
+Les recherches de Tarlow concernent l'archéologie historique de la Grande-Bretagne et de l'Europe du Nord. Elle a publié de nombreux ouvrages et a contribué à plusieurs revues et ouvrages collectifs portant sur l'archéologie funéraire, y compris l'ouvrage de référence Handbook of the Archaeology of Death and Burial. Elle s'intéresse également à l'archéologie des émotions et les questions d'éthique archéologique.
+De 2011 à 2016, Sarah Tarlow a dirigé un projet de recherche multidisciplinaire de grande envergure, Harnessing the Power of the Criminal Corpse, financé par le Wellcome Trust. Le projet s'intéressait au devenir, à la perception et aux usages du corps du condamné à mort en Grande-Bretagne (XVIe siècle-XXe siècle), une question qui a été étudiée à travers les perspectives de l'archéologie, de l'histoire médicale et criminelle, du folklore, de la littérature et de la philosophie ,.
 </t>
         </is>
       </c>
@@ -547,19 +561,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-(en) Sarah Tarlow et Susie West, Familiar Past? : Archaeologies of Later Historical Britain, Routledge, 1999, 294 p. (ISBN 978-0-415-18805-0, lire en ligne)
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Sarah Tarlow et Susie West, Familiar Past? : Archaeologies of Later Historical Britain, Routledge, 1999, 294 p. (ISBN 978-0-415-18805-0, lire en ligne)
 (en) Sarah Tarlow, Bereavement and Commemoration, An Archaeology of Mortality, Wiley-Blackwell, 1999, 207 p. (ISBN 978-0-631-20614-9)
 (en) Sarah Tarlow, The Archaeology of Improvement : Britain 1750-1850, Cambridge University Press, 2007
 (en) Sarah Tarlow, Ritual, Belief and the Dead in Early Modern Britain and Ireland, Cambridge University Press, 2013, 240 p. (ISBN 978-1-107-66798-3)
 (en) Sarah Tarlow, The Golden and Ghoulish Age of the Gibbet in Britain, Palgrave MacMillan, coll. « Palgrave Historical Studies in the Criminal Corpse and its Afterlife) », 2017, 155 p. (ISBN 978-1-137-60089-9, lire en ligne)
 (en) Sarah Tarlow et Emma Battell Lowman, Harnessing the Power of the Criminal Corpse, Palgrave MacMillan, coll. « Palgrave Historical Studies in the Criminal Corpse and its Afterlife », 2018, 273 p. (ISBN 978-3-319-77908-9, lire en ligne)
-(en) Sarah Tarlow, The Archaeology of Loss : Life, Love and the Art of Dying, Picador, 2023 (ISBN 1-5290-9951-X, 978-1-5290-9951-5 et 978-1-5290-9953-9, OCLC 1336986528).
-Direction d'ouvrages
-(en) Sarah Tarlow (dir.) et Liv Nilsson Stutz (dir), The Oxford Handbook of the Archaeology of Death and Burial, Oxford, Oxford University Press, coll. « Oxford Handbooks », 2013, 849 p. (ISBN 978-0-19-956906-9 et 0-19-956906-1, OCLC 851701740, lire en ligne)
-(en) Sarah Tarlow, The Archaeology of Death in Post-medieval Europe, Sciendo, 2015, 237 p. (ISBN 978-3-11-043973-1, lire en ligne)
-Articles
-(en) Sarah Tarlow, « Landscapes of memory: the nineteenth century garden cemetery », European Journal of Archaeology, vol. 3, no 2,‎ 2000, p. 217–239 (DOI 10.1179/146195700799650434, lire en ligne)
+(en) Sarah Tarlow, The Archaeology of Loss : Life, Love and the Art of Dying, Picador, 2023 (ISBN 1-5290-9951-X, 978-1-5290-9951-5 et 978-1-5290-9953-9, OCLC 1336986528).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sarah_Tarlow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Tarlow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Direction d'ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Sarah Tarlow (dir.) et Liv Nilsson Stutz (dir), The Oxford Handbook of the Archaeology of Death and Burial, Oxford, Oxford University Press, coll. « Oxford Handbooks », 2013, 849 p. (ISBN 978-0-19-956906-9 et 0-19-956906-1, OCLC 851701740, lire en ligne)
+(en) Sarah Tarlow, The Archaeology of Death in Post-medieval Europe, Sciendo, 2015, 237 p. (ISBN 978-3-11-043973-1, lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarah_Tarlow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Tarlow</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Sarah Tarlow, « Landscapes of memory: the nineteenth century garden cemetery », European Journal of Archaeology, vol. 3, no 2,‎ 2000, p. 217–239 (DOI 10.1179/146195700799650434, lire en ligne)
 (en) Sarah Tarlow, « Emotion in Archaeology », Current Anthropology, vol. 41, no 5,‎ 2000, p. 713–746 (DOI 10.1086/317404)
 (en) Sarah Tarlow, « The Archaeology of Emotion and Affect », Annual Review of Anthropology, vol. 41, no 1,‎ 2012, p. 169–185 (ISSN 0084-6570 et 1545-4290, DOI 10.1146/annurev-anthro-092611-145944).
 (en) Sarah Tarlow, « The Technology of the Gibbet », International Journal of Historical Archaeology, vol. 18, no 4,‎ 2014, p. 668–699 (PMID 25834380, PMCID 4372825, DOI 10.1007/s10761-014-0275-0, lire en ligne)
